--- a/data/fabrika.xlsx
+++ b/data/fabrika.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbestamis/Dev/Java/Beyazıt-Bestami-Sarıkaya-Odev1/Beyazıt-Bestami-Sarıkaya-Odev1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546058EE-CA98-3E4B-A1D5-F9B882E56E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155AA25E-F8A3-3346-8F4E-EBACCF42AFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9256FCE2-A246-674F-AE99-49E7A4A2535A}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="166" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="166" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -385,12 +385,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -400,7 +400,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -410,77 +410,77 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -490,12 +490,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -505,12 +505,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -525,42 +525,42 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -570,17 +570,17 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
